--- a/outputs/BURs/tmp_Corporate.xlsx
+++ b/outputs/BURs/tmp_Corporate.xlsx
@@ -8,20 +8,23 @@
   <sheets>
     <sheet name="Corp Administration" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Corp Business Development" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Corp Information Technology" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Corp Legal" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Corp Logistics" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Corp RBS" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Corp Sourcing" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Corp Trade Compliance" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Finance" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="L1_Corporate" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Corp China Pacific" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Corp EH&amp;S" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Corp Human Resources" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Corp Information Technology" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Corp Legal" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Corp Logistics" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Corp RBS" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Corp Sourcing" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Corp Trade Compliance" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Finance" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="L1_Corporate" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -95,13 +98,22 @@
     <t xml:space="preserve">Goal</t>
   </si>
   <si>
+    <t xml:space="preserve">CY Actual</t>
+  </si>
+  <si>
     <t xml:space="preserve">Corp Business Development</t>
   </si>
   <si>
-    <t xml:space="preserve">Corp Information Technology</t>
+    <t xml:space="preserve">Corp China Pacific</t>
   </si>
   <si>
-    <t xml:space="preserve">CY Actual</t>
+    <t xml:space="preserve">Corp EH&amp;S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corp Human Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corp Information Technology</t>
   </si>
   <si>
     <t xml:space="preserve">Corp Legal</t>
@@ -529,26 +541,54 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
-      <c r="N2"/>
-      <c r="O2"/>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -560,55 +600,187 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -699,55 +871,55 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.465909090909091</v>
+        <v>0.1171</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4286</v>
+        <v>0.0323</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4167</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4348</v>
+        <v>0.0314</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4167</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2857</v>
+        <v>0.0147</v>
       </c>
       <c r="K2" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4348</v>
+        <v>0.0147</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5455</v>
+        <v>0.0143</v>
       </c>
       <c r="N2" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5</v>
+        <v>0.0139</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5556</v>
+        <v>0.0282</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6667</v>
+        <v>0.029</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4286</v>
+        <v>0.0137</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4</v>
+        <v>0.0424</v>
       </c>
     </row>
     <row r="3">
@@ -760,56 +932,54 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.02907</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0.02826</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0.01323</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0.01323</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0.01287</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0.01251</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0.02538</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0.0261</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0.01233</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>0.03816</v>
       </c>
     </row>
     <row r="4">
@@ -820,22 +990,22 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.1171</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4286</v>
+        <v>0.0323</v>
       </c>
       <c r="F4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>0.0314</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -849,6 +1019,1282 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5"/>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0955</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0106</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0134</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0295</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0026</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0076</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0099</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0121</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0271</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0096</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0047</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0166</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="n">
+        <v>0.00486</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.00954</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.01206</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02655</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.00234</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00684</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.01134</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0207</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.00891</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.01089</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.02439</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.00864</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.00216</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.00423</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.01494</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0955</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0106</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0134</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0295</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7143</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4615</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.4545</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.4286</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1053</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0127</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0285</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0076</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0109</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0043</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0256</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0073</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0094</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0283</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="n">
+        <v>0.01143</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.00513</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00918</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02565</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.00396</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00684</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.00981</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0207</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00387</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.01062</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00855</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.02304</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.01044</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.00657</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.00846</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.02547</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1053</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0127</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0285</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.465909090909091</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4348</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2857</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4348</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.5455</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.5556</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -931,94 +2377,254 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
       <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2"/>
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
       <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1103,13 +2709,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.647058823529412</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1118,42 +2724,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2"/>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
-      <c r="S2"/>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
       <c r="T2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1161,61 +2771,59 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1223,10 +2831,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1234,8 +2842,12 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4"/>
-      <c r="G4"/>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
@@ -1339,45 +2951,55 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.416666666666667</v>
+        <v>0.1205</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F2"/>
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2"/>
-      <c r="K2"/>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N2"/>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.125</v>
+      </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="Q2"/>
+        <v>0.1205</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1390,56 +3012,54 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0.1125</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0.10845</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1450,18 +3070,22 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0.333333333333333</v>
+        <v>0.1205</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4"/>
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
       <c r="H4" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -1563,17 +3187,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.142857142857143</v>
-      </c>
-      <c r="E2"/>
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1581,22 +3207,36 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2"/>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
-      <c r="N2"/>
-      <c r="O2"/>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1608,56 +3248,54 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1668,20 +3306,22 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E4"/>
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -1783,28 +3423,56 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
+        <v>0.1116</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0175</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0034</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0068</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0205</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
       <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2"/>
+        <v>0.0134</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0099</v>
+      </c>
       <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
+        <v>0.0233</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0132</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0362</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1816,56 +3484,54 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.01575</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0.00315</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.00945</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0.02835</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0.00306</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0.00612</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0.00918</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0.01845</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0.01206</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0.00891</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0.02097</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0.01485</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0.00594</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0.01188</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>0.03258</v>
       </c>
     </row>
     <row r="4">
@@ -1876,18 +3542,22 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
+        <v>0.1116</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0175</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0035</v>
+      </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.0105</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.0315</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -1901,6 +3571,160 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.647058823529412</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5"/>
+      <c r="T5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1989,45 +3813,55 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2"/>
+        <v>0.2227</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0217</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0222</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.0438</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="J2"/>
+        <v>0.0227</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.0227</v>
       </c>
       <c r="L2" t="n">
-        <v>0.25</v>
+        <v>0.0451</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.0227</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2"/>
+        <v>0.0465</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
       <c r="P2" t="n">
-        <v>0.5</v>
+        <v>0.0682</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2"/>
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0667</v>
+      </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5</v>
+        <v>0.0656</v>
       </c>
     </row>
     <row r="3">
@@ -2040,56 +3874,54 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.01953</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.01998</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0.03942</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0.02043</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0.02043</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0.04059</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0.02043</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0.04185</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0.06138</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0.06003</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>0.05904</v>
       </c>
     </row>
     <row r="4">
@@ -2100,20 +3932,22 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.2227</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4"/>
+        <v>0.0217</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.0222</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.0438</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -2127,6 +3961,154 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="Q5"/>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2215,28 +4197,56 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E2"/>
+        <v>0.1275</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0196</v>
+      </c>
       <c r="F2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G2"/>
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
       <c r="H2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
+        <v>0.0195</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0185</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0172</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0179</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0536</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0179</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0377</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0542</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2248,57 +4258,237 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.01764</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0.01755</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0.01665</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0.01548</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0.01611</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0.04824</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0.01611</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0.03393</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0.04878</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1275</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0195</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2387,53 +4577,55 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="F2"/>
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
       <c r="G2" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7143</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4615</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6667</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4545</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6667</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2446,56 +4638,54 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2506,22 +4696,22 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -2536,6 +4726,136 @@
       <c r="S4"/>
       <c r="T4"/>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/outputs/BURs/tmp_Corporate.xlsx
+++ b/outputs/BURs/tmp_Corporate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t xml:space="preserve">Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ytd_annualized</t>
   </si>
   <si>
     <t xml:space="preserve">Corporate</t>
@@ -527,16 +530,19 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -587,18 +593,21 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -649,16 +658,19 @@
       <c r="T3" t="n">
         <v>0</v>
       </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -675,7 +687,9 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4"/>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -687,16 +701,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -721,16 +738,17 @@
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -783,6 +801,7 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -859,16 +878,19 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
         <v>0.1171</v>
@@ -921,16 +943,19 @@
       <c r="T2" t="n">
         <v>0.0424</v>
       </c>
+      <c r="U2" t="n">
+        <v>0.2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -981,33 +1006,38 @@
       <c r="T3" t="n">
         <v>0.03816</v>
       </c>
+      <c r="U3" t="n">
+        <v>0.2022</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1171</v>
+        <v>0.0674</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0323</v>
+        <v>0.0133</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.0417</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0314</v>
-      </c>
-      <c r="I4"/>
+        <v>0.0541</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0133</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -1019,16 +1049,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0.2022</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0.333333333333333</v>
@@ -1071,16 +1104,17 @@
       <c r="T5" t="n">
         <v>0.5</v>
       </c>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -1133,16 +1167,17 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1169,6 +1204,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1245,16 +1281,19 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1305,18 +1344,21 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -1367,16 +1409,19 @@
       <c r="T3" t="n">
         <v>0</v>
       </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1393,7 +1438,9 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4"/>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -1405,16 +1452,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0.5</v>
@@ -1439,16 +1489,17 @@
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -1501,6 +1552,7 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1577,19 +1629,22 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0955</v>
+        <v>0.0953</v>
       </c>
       <c r="E2" t="n">
         <v>0.0054</v>
@@ -1598,10 +1653,10 @@
         <v>0.0106</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0134</v>
+        <v>0.0133</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0295</v>
+        <v>0.0294</v>
       </c>
       <c r="I2" t="n">
         <v>0.0026</v>
@@ -1613,7 +1668,7 @@
         <v>0.0126</v>
       </c>
       <c r="L2" t="n">
-        <v>0.023</v>
+        <v>0.0229</v>
       </c>
       <c r="M2" t="n">
         <v>0.005</v>
@@ -1625,7 +1680,7 @@
         <v>0.0121</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0271</v>
+        <v>0.027</v>
       </c>
       <c r="Q2" t="n">
         <v>0.0096</v>
@@ -1639,16 +1694,19 @@
       <c r="T2" t="n">
         <v>0.0166</v>
       </c>
+      <c r="U2" t="n">
+        <v>0.1347</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -1658,10 +1716,10 @@
         <v>0.00954</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01206</v>
+        <v>0.01197</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02655</v>
+        <v>0.02646</v>
       </c>
       <c r="I3" t="n">
         <v>0.00234</v>
@@ -1673,7 +1731,7 @@
         <v>0.01134</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0207</v>
+        <v>0.02061</v>
       </c>
       <c r="M3" t="n">
         <v>0.0045</v>
@@ -1685,7 +1743,7 @@
         <v>0.01089</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02439</v>
+        <v>0.0243</v>
       </c>
       <c r="Q3" t="n">
         <v>0.00864</v>
@@ -1699,33 +1757,38 @@
       <c r="T3" t="n">
         <v>0.01494</v>
       </c>
+      <c r="U3" t="n">
+        <v>0.1347</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0955</v>
+        <v>0.0449</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0054</v>
+        <v>0.0071</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0106</v>
+        <v>0.0047</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0134</v>
+        <v>0.007</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0295</v>
-      </c>
-      <c r="I4"/>
+        <v>0.0188</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0264</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -1737,16 +1800,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0.1347</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0.5</v>
@@ -1797,16 +1863,17 @@
       <c r="T5" t="n">
         <v>0.4286</v>
       </c>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -1859,19 +1926,20 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E7" t="n">
         <v>0.5</v>
@@ -1885,7 +1953,9 @@
       <c r="H7" t="n">
         <v>0.4</v>
       </c>
-      <c r="I7"/>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -1897,6 +1967,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1973,155 +2044,166 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1053</v>
+        <v>0.1038</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0127</v>
+        <v>0.0125</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0057</v>
+        <v>0.0056</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0102</v>
+        <v>0.0101</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0285</v>
+        <v>0.0281</v>
       </c>
       <c r="I2" t="n">
         <v>0.0044</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0076</v>
+        <v>0.0075</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0109</v>
+        <v>0.0107</v>
       </c>
       <c r="L2" t="n">
-        <v>0.023</v>
+        <v>0.0226</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0043</v>
+        <v>0.0042</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0118</v>
+        <v>0.0116</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0095</v>
+        <v>0.0093</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0256</v>
+        <v>0.0252</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0116</v>
+        <v>0.0114</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0073</v>
+        <v>0.0072</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0094</v>
+        <v>0.0092</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0283</v>
+        <v>0.0279</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1491</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.01143</v>
+        <v>0.01125</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00513</v>
+        <v>0.00504</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00918</v>
+        <v>0.00909</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02565</v>
+        <v>0.02529</v>
       </c>
       <c r="I3" t="n">
         <v>0.00396</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00684</v>
+        <v>0.00675</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00981</v>
+        <v>0.00963</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0207</v>
+        <v>0.02034</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00387</v>
+        <v>0.00378</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01062</v>
+        <v>0.01044</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00855</v>
+        <v>0.00837</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02304</v>
+        <v>0.02268</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01044</v>
+        <v>0.01026</v>
       </c>
       <c r="R3" t="n">
-        <v>0.00657</v>
+        <v>0.00648</v>
       </c>
       <c r="S3" t="n">
-        <v>0.00846</v>
+        <v>0.00828</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02547</v>
+        <v>0.02511</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1491</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1053</v>
+        <v>0.0497</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0127</v>
+        <v>0.0051</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0057</v>
+        <v>0.0113</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0102</v>
+        <v>0.0156</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0285</v>
-      </c>
-      <c r="I4"/>
+        <v>0.032</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0178</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -2133,16 +2215,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0.1491</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0.465909090909091</v>
@@ -2195,16 +2280,17 @@
       <c r="T5" t="n">
         <v>0.4</v>
       </c>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -2257,19 +2343,20 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="E7" t="n">
         <v>0.4286</v>
@@ -2283,7 +2370,9 @@
       <c r="H7" t="n">
         <v>0.5</v>
       </c>
-      <c r="I7"/>
+      <c r="I7" t="n">
+        <v>0.4</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -2295,6 +2384,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2371,16 +2461,19 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2431,18 +2524,21 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -2493,17 +2589,20 @@
       <c r="T3" t="n">
         <v>0</v>
       </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
@@ -2519,7 +2618,9 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4"/>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -2531,16 +2632,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -2565,68 +2669,103 @@
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2703,16 +2842,19 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2763,18 +2905,21 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -2825,16 +2970,19 @@
       <c r="T3" t="n">
         <v>0</v>
       </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2851,7 +2999,9 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4"/>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -2863,6 +3013,9 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2939,16 +3092,19 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
         <v>0.1205</v>
@@ -3001,16 +3157,19 @@
       <c r="T2" t="n">
         <v>0</v>
       </c>
+      <c r="U2" t="n">
+        <v>1.0344</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -3061,33 +3220,38 @@
       <c r="T3" t="n">
         <v>0</v>
       </c>
+      <c r="U3" t="n">
+        <v>1.0344</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1205</v>
+        <v>0.3448</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4"/>
+        <v>0.3333</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -3099,6 +3263,9 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>1.0344</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3175,16 +3342,19 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3235,18 +3405,21 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -3297,16 +3470,19 @@
       <c r="T3" t="n">
         <v>0</v>
       </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3323,7 +3499,9 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4"/>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -3335,6 +3513,9 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3411,155 +3592,166 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1116</v>
+        <v>0.1097</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0175</v>
+        <v>0.0173</v>
       </c>
       <c r="F2" t="n">
         <v>0.0035</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0105</v>
+        <v>0.0103</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0315</v>
+        <v>0.0311</v>
       </c>
       <c r="I2" t="n">
         <v>0.0034</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0068</v>
+        <v>0.0067</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0102</v>
+        <v>0.01</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0205</v>
+        <v>0.0201</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0134</v>
+        <v>0.0132</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0099</v>
+        <v>0.0097</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0233</v>
+        <v>0.0229</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0165</v>
+        <v>0.0162</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0066</v>
+        <v>0.0065</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0132</v>
+        <v>0.0129</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0362</v>
+        <v>0.0355</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.01575</v>
+        <v>0.01557</v>
       </c>
       <c r="F3" t="n">
         <v>0.00315</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00945</v>
+        <v>0.00927</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02835</v>
+        <v>0.02799</v>
       </c>
       <c r="I3" t="n">
         <v>0.00306</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00612</v>
+        <v>0.00603</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00918</v>
+        <v>0.009</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01845</v>
+        <v>0.01809</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01206</v>
+        <v>0.01188</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00891</v>
+        <v>0.00873</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02097</v>
+        <v>0.02061</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01485</v>
+        <v>0.01458</v>
       </c>
       <c r="R3" t="n">
-        <v>0.00594</v>
+        <v>0.00585</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01188</v>
+        <v>0.01161</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03258</v>
+        <v>0.03195</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1179</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1116</v>
+        <v>0.0393</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0175</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0035</v>
+        <v>0.0163</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0105</v>
+        <v>0.0132</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0315</v>
-      </c>
-      <c r="I4"/>
+        <v>0.0294</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0099</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -3571,16 +3763,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0.1179</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0.647058823529412</v>
@@ -3629,16 +3824,17 @@
       <c r="T5" t="n">
         <v>0.5</v>
       </c>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -3691,19 +3887,20 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -3713,7 +3910,9 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7"/>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -3725,6 +3924,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3801,19 +4001,22 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2227</v>
+        <v>0.2188</v>
       </c>
       <c r="E2" t="n">
         <v>0.0217</v>
@@ -3828,51 +4031,54 @@
         <v>0.0438</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0227</v>
+        <v>0.0222</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0227</v>
+        <v>0.0222</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0451</v>
+        <v>0.0442</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0227</v>
+        <v>0.0222</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0465</v>
+        <v>0.0455</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0682</v>
+        <v>0.0667</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0667</v>
+        <v>0.0652</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0656</v>
+        <v>0.0642</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.3846</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -3888,68 +4094,73 @@
         <v>0.03942</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02043</v>
+        <v>0.01998</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02043</v>
+        <v>0.01998</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04059</v>
+        <v>0.03978</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02043</v>
+        <v>0.01998</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04185</v>
+        <v>0.04095</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06138</v>
+        <v>0.06003</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06003</v>
+        <v>0.05868</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.05904</v>
+        <v>0.05778</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.3846</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2227</v>
+        <v>0.1282</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0217</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.0417</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0222</v>
+        <v>0.0444</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0438</v>
-      </c>
-      <c r="I4"/>
+        <v>0.0839</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0455</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -3961,16 +4172,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0.3846</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0.416666666666667</v>
@@ -4013,16 +4227,17 @@
       <c r="T5" t="n">
         <v>0.25</v>
       </c>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -4075,19 +4290,20 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="n">
         <v>0.3333</v>
@@ -4097,7 +4313,9 @@
       <c r="H7" t="n">
         <v>0.3333</v>
       </c>
-      <c r="I7"/>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -4109,6 +4327,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4185,22 +4404,25 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1275</v>
+        <v>0.1131</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0196</v>
+        <v>0.0172</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -4209,19 +4431,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0195</v>
+        <v>0.0172</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0185</v>
+        <v>0.0164</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0172</v>
+        <v>0.0154</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0179</v>
+        <v>0.0159</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0536</v>
+        <v>0.0476</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -4239,28 +4461,31 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0179</v>
+        <v>0.0159</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0377</v>
+        <v>0.0333</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0542</v>
+        <v>0.0482</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0984</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.01764</v>
+        <v>0.01548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -4269,19 +4494,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01755</v>
+        <v>0.01548</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01665</v>
+        <v>0.01476</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01548</v>
+        <v>0.01386</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01611</v>
+        <v>0.01431</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04824</v>
+        <v>0.04284</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -4299,41 +4524,46 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01611</v>
+        <v>0.01431</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03393</v>
+        <v>0.02997</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04878</v>
+        <v>0.04338</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0984</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1275</v>
+        <v>0.0328</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0196</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.0164</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.0167</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0195</v>
-      </c>
-      <c r="I4"/>
+        <v>0.0332</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -4345,16 +4575,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0.0984</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0.142857142857143</v>
@@ -4391,16 +4624,17 @@
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -4453,19 +4687,20 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="n">
@@ -4477,7 +4712,9 @@
       <c r="H7" t="n">
         <v>0.5</v>
       </c>
-      <c r="I7"/>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -4489,6 +4726,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4565,16 +4803,19 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4626,17 +4867,20 @@
       </c>
       <c r="T2" t="n">
         <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.7142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -4687,33 +4931,38 @@
       <c r="T3" t="n">
         <v>0</v>
       </c>
+      <c r="U3" t="n">
+        <v>1.7142</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.5714</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4"/>
+        <v>0.5405</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -4725,16 +4974,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>1.7142</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4759,16 +5011,17 @@
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -4821,16 +5074,17 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -4855,6 +5109,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/outputs/BURs/tmp_Corporate.xlsx
+++ b/outputs/BURs/tmp_Corporate.xlsx
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
   <si>
     <t xml:space="preserve">division_function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cvd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -95,13 +98,19 @@
     <t xml:space="preserve">Corp Administration</t>
   </si>
   <si>
+    <t xml:space="preserve">Voluntary Turnover Professional</t>
+  </si>
+  <si>
     <t xml:space="preserve">PY Actual</t>
   </si>
   <si>
-    <t xml:space="preserve">Goal</t>
+    <t xml:space="preserve">AOP</t>
   </si>
   <si>
-    <t xml:space="preserve">CY Actual</t>
+    <t xml:space="preserve">Commit/Forecast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Fill Rate</t>
   </si>
   <si>
     <t xml:space="preserve">Corp Business Development</t>
@@ -533,19 +542,22 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -596,23 +608,26 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -659,21 +674,24 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -690,35 +708,62 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5"/>
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
@@ -726,32 +771,33 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5"/>
+      <c r="M5"/>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
       <c r="O5"/>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5"/>
+      <c r="P5"/>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -801,7 +847,10 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -881,243 +930,280 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.1171</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0323</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.0314</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.0147</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.0147</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.0143</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0.0139</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.0282</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0.029</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>0.0137</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.0424</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.2022</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
         <v>0.02907</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.02826</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.01323</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.01323</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.01287</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>0.01251</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.02538</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>0.0261</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>0.01233</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.03816</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.2022</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0674</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0133</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.0417</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.0541</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.0133</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="K4" t="n">
+        <v>0.01685</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.01685</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.05055</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.01685</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.01685</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.01685</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.05055</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.01685</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.01685</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.01685</v>
+      </c>
       <c r="U4" t="n">
+        <v>0.05055</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.2022</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="E5"/>
       <c r="F5"/>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G5"/>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.3333</v>
       </c>
-      <c r="J5"/>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
+      <c r="K5"/>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.25</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5"/>
-      <c r="P5" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5"/>
       <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5"/>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5"/>
       <c r="T5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U5"/>
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -1167,44 +1253,72 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7"/>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7"/>
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7"/>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
       <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1284,19 +1398,22 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1347,23 +1464,26 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -1410,21 +1530,24 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1441,43 +1564,70 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I5"/>
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -1490,19 +1640,20 @@
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -1552,7 +1703,10 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1632,251 +1786,288 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.0953</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0054</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.0106</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.0133</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.0294</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.0026</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.0076</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.0126</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.0229</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.005</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.0099</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0.0121</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.027</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0.0096</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.0024</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.0047</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.0166</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.1347</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
         <v>0.00486</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.00954</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.01197</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.02646</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.00234</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.00684</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.01134</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.02061</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.0045</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.00891</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0.01089</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.0243</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>0.00864</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.00216</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.00423</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.01494</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.1347</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0449</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0071</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.0047</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.007</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.0188</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.0264</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="K4" t="n">
+        <v>0.011225</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.011225</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.033675</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.011225</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.011225</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.011225</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.033675</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.011225</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.011225</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.011225</v>
+      </c>
       <c r="U4" t="n">
+        <v>0.033675</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.1347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5</v>
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
       </c>
       <c r="E5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.6667</v>
       </c>
-      <c r="F5"/>
-      <c r="G5" t="n">
+      <c r="G5"/>
+      <c r="H5" t="n">
         <v>0.75</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.7143</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.3333</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.25</v>
       </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
       <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.4615</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.6667</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.4545</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>0.3333</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>0.6667</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>0.4286</v>
       </c>
-      <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -1926,48 +2117,76 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.5</v>
-      </c>
       <c r="F7" t="n">
         <v>0.5</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.4</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2047,253 +2266,290 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.1038</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0125</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.0056</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.0101</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.0281</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.0044</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.0075</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.0107</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.0226</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.0042</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.0116</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0.0093</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.0252</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0.0114</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.0072</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.0092</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.0279</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.1491</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
         <v>0.01125</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.00504</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.00909</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.02529</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.00396</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.00675</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.00963</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.02034</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.00378</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.01044</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0.00837</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.02268</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>0.01026</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.00648</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.00828</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.02511</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.1491</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0497</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0051</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.0113</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.0156</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.032</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.0178</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="K4" t="n">
+        <v>0.012425</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.012425</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.037275</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.012425</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.012425</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.012425</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.037275</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.012425</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.012425</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.012425</v>
+      </c>
       <c r="U4" t="n">
+        <v>0.037275</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.1491</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.465909090909091</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.4286</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="G5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.4167</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.4348</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.4167</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.2857</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.75</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0.4348</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.5455</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>0.625</v>
       </c>
-      <c r="O5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="P5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.5556</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>0.6667</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>0.2</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>0.4286</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>0.4</v>
       </c>
-      <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -2343,48 +2599,76 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.461538461538462</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.4286</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.25</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.8</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.5</v>
-      </c>
       <c r="I7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.4</v>
       </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+      <c r="K7" t="n">
+        <v>0.461538461538462</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.461538461538462</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.461538461538462</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.461538461538462</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.461538461538462</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.461538461538462</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.461538461538462</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.461538461538462</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.461538461538462</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.461538461538462</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.461538461538462</v>
+      </c>
+      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2464,19 +2748,22 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2527,23 +2814,26 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -2590,21 +2880,24 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2621,35 +2914,62 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5"/>
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
@@ -2658,32 +2978,33 @@
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5"/>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5"/>
+      <c r="N5"/>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
-      </c>
       <c r="E6" t="n">
         <v>0.5</v>
       </c>
@@ -2732,40 +3053,68 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7"/>
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+      <c r="I7"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2845,19 +3194,22 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2908,23 +3260,26 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -2971,22 +3326,25 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
@@ -3002,18 +3360,43 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3095,23 +3478,26 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.1205</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
@@ -3137,17 +3523,17 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0.125</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.1205</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
@@ -3158,23 +3544,26 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.0344</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -3200,17 +3589,17 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>0.1125</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.10845</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
@@ -3221,49 +3610,77 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.0344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.3448</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.1667</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.2</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.3333</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0862</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0862</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2586</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0862</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0862</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0862</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2586</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0862</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0862</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0862</v>
+      </c>
       <c r="U4" t="n">
+        <v>0.2586</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.0344</v>
       </c>
     </row>
@@ -3345,19 +3762,22 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3408,23 +3828,26 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -3471,21 +3894,24 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3502,18 +3928,43 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3595,213 +4046,247 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.1097</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0173</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.0035</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.0103</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.0311</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.0034</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.0067</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.01</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.0201</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0.0132</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0.0097</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.0229</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0.0162</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.0065</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.0129</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.0355</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.1179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
         <v>0.01557</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.00315</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.00927</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.02799</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.00306</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.00603</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.009</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.01809</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>0.01188</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0.00873</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.02061</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>0.01458</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.00585</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.01161</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.03195</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.1179</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0393</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0163</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.0132</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.0294</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.0099</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="K4" t="n">
+        <v>0.009825</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.009825</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.029475</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.009825</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.009825</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.009825</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.029475</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.009825</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.009825</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.009825</v>
+      </c>
       <c r="U4" t="n">
+        <v>0.029475</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.1179</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.647058823529412</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.3333</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.1667</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="K5"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -3818,26 +4303,29 @@
         <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5"/>
-      <c r="T5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U5"/>
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5"/>
+      <c r="U5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -3887,44 +4375,72 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.8</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7"/>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
       <c r="G7"/>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+      <c r="H7"/>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4004,243 +4520,280 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.2188</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0217</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.0222</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.0438</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.0222</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.0222</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.0442</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.0222</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.0455</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.0667</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>0.0652</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0.0642</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.3846</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
         <v>0.01953</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.01998</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.03942</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.01998</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.01998</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.03978</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.01998</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.04095</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.06003</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>0.05868</v>
       </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>0.05778</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.3846</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.1282</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0417</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.0444</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.0839</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.0455</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="K4" t="n">
+        <v>0.03205</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.03205</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.09615</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.03205</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.03205</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.03205</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.09615</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.03205</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.03205</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.03205</v>
+      </c>
       <c r="U4" t="n">
+        <v>0.09615</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.3846</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="F5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G5"/>
       <c r="H5" t="n">
         <v>0.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5"/>
+        <v>0.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
+      <c r="L5"/>
       <c r="M5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N5"/>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O5"/>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.3333</v>
       </c>
-      <c r="Q5"/>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
+      <c r="R5"/>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>0.3333</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>0.25</v>
       </c>
-      <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -4290,44 +4843,72 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.25</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.3333</v>
       </c>
-      <c r="F7"/>
       <c r="G7"/>
-      <c r="H7" t="n">
+      <c r="H7"/>
+      <c r="I7" t="n">
         <v>0.3333</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4407,47 +4988,50 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.1131</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0172</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.0172</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.0164</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.0154</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.0159</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.0476</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
@@ -4461,56 +5045,59 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>0.0159</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.0333</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.0482</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.0984</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
         <v>0.01548</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.01548</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.01476</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.01386</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.01431</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.04284</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
@@ -4524,120 +5111,151 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>0.01431</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.02997</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.04338</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.0984</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0328</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0164</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.0167</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.0332</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0082</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0082</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0246</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0082</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0082</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0082</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0246</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0082</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0082</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0082</v>
+      </c>
       <c r="U4" t="n">
+        <v>0.0246</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.0984</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.142857142857143</v>
       </c>
-      <c r="E5"/>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
+      <c r="F5"/>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.3333</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="K5"/>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5"/>
       <c r="M5" t="n">
         <v>0</v>
       </c>
-      <c r="N5"/>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
       <c r="O5"/>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5"/>
+      <c r="P5"/>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -4687,46 +5305,74 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.285714285714286</v>
       </c>
-      <c r="E7"/>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
+      <c r="F7"/>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+        <v>0.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4806,19 +5452,22 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -4869,23 +5518,26 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.7142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -4932,66 +5584,96 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.7142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.5714</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.25</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.3333</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.5405</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.14285</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.14285</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.42855</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.14285</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.14285</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.14285</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.42855</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.14285</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.14285</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.14285</v>
+      </c>
       <c r="U4" t="n">
+        <v>0.42855</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.7142</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5"/>
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
@@ -5000,31 +5682,32 @@
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5"/>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5"/>
+      <c r="N5"/>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5"/>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -5074,42 +5757,70 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7"/>
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
       <c r="F7"/>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
+      <c r="G7"/>
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7"/>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
       <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
